--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblBankAccount.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblBankAccount.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="6585"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="3" r:id="rId1"/>
@@ -1613,12 +1613,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1640,13 +1634,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="145">
     <cellStyle name="%" xfId="4"/>
@@ -1812,31 +1812,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="MAIN"/>
-      <sheetName val="DataLookUp"/>
-      <sheetName val="Internal Career (Last Position)"/>
-      <sheetName val="Internal Career (Previous Pos)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>ID Employee</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="DataLookUp"/>
       <sheetName val="Sheet2 (2)"/>
     </sheetNames>
@@ -1849,6 +1824,31 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MAIN"/>
+      <sheetName val="DataLookUp"/>
+      <sheetName val="Internal Career (Last Position)"/>
+      <sheetName val="Internal Career (Previous Pos)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>SYS_PID</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2144,62 +2144,62 @@
   <dimension ref="A2:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="14" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="23" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="5" t="s">
         <v>199</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="23"/>
       <c r="N3" s="10" t="s">
         <v>201</v>
       </c>
@@ -2212,23 +2212,23 @@
         <v>236</v>
       </c>
       <c r="F4" s="7">
-        <f ca="1">VLOOKUP($E4, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E4, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>183</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L4" s="1" t="str">
         <f ca="1">IF(EXACT(B4, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblBankAccount_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", F4, ", '", G4, "', '", H4, "', ", I4, ", ", B4, ");"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '0063032911', 'PT QDC Technologies', 62000000000001, 124000000000001);</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="22">
         <v>167000000000001</v>
       </c>
     </row>
@@ -2240,16 +2240,16 @@
         <v>236</v>
       </c>
       <c r="F5" s="7">
-        <f ca="1">VLOOKUP($E5, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E5, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>263</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L5" s="1" t="str">
@@ -2257,7 +2257,7 @@
         <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '2173050101', 'PT QDC Technologies', 62000000000001, 124000000000001);</v>
       </c>
       <c r="N5" s="11">
-        <f t="shared" ref="N5:N59" si="1">N4+IF(EXACT(B5, ""), 0, 1)</f>
+        <f t="shared" ref="N5:N58" si="1">N4+IF(EXACT(B5, ""), 0, 1)</f>
         <v>167000000000002</v>
       </c>
     </row>
@@ -2269,16 +2269,16 @@
         <v>236</v>
       </c>
       <c r="F6" s="7">
-        <f ca="1">VLOOKUP($E6, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E6, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>265</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L6" s="1" t="str">
@@ -2298,16 +2298,16 @@
         <v>236</v>
       </c>
       <c r="F7" s="7">
-        <f ca="1">VLOOKUP($E7, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E7, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>183</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L7" s="1" t="str">
@@ -2327,16 +2327,16 @@
         <v>236</v>
       </c>
       <c r="F8" s="7">
-        <f ca="1">VLOOKUP($E8, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E8, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>263</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L8" s="1" t="str">
@@ -2356,16 +2356,16 @@
         <v>236</v>
       </c>
       <c r="F9" s="7">
-        <f ca="1">VLOOKUP($E9, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E9, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>265</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L9" s="1" t="str">
@@ -2385,16 +2385,16 @@
         <v>236</v>
       </c>
       <c r="F10" s="7">
-        <f ca="1">VLOOKUP($E10, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E10, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>413</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L10" s="1" t="str">
@@ -2414,16 +2414,16 @@
         <v>236</v>
       </c>
       <c r="F11" s="7">
-        <f ca="1">VLOOKUP($E11, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E11, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="13" t="s">
         <v>386</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L11" s="1" t="str">
@@ -2443,16 +2443,16 @@
         <v>408</v>
       </c>
       <c r="F12" s="7">
-        <f ca="1">VLOOKUP($E12, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E12, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000017</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>299</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L12" s="1" t="str">
@@ -2472,16 +2472,16 @@
         <v>408</v>
       </c>
       <c r="F13" s="7">
-        <f ca="1">VLOOKUP($E13, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E13, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000017</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="13" t="s">
         <v>317</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L13" s="1" t="str">
@@ -2501,16 +2501,16 @@
         <v>408</v>
       </c>
       <c r="F14" s="7">
-        <f ca="1">VLOOKUP($E14, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E14, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000017</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="13" t="s">
         <v>354</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L14" s="1" t="str">
@@ -2530,16 +2530,16 @@
         <v>408</v>
       </c>
       <c r="F15" s="7">
-        <f ca="1">VLOOKUP($E15, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E15, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000017</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="13" t="s">
         <v>374</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L15" s="1" t="str">
@@ -2559,16 +2559,16 @@
         <v>404</v>
       </c>
       <c r="F16" s="7">
-        <f ca="1">VLOOKUP($E16, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E16, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000015</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="13" t="s">
         <v>296</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L16" s="1" t="str">
@@ -2588,16 +2588,16 @@
         <v>404</v>
       </c>
       <c r="F17" s="7">
-        <f ca="1">VLOOKUP($E17, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E17, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000015</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="13" t="s">
         <v>345</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="14" t="s">
         <v>416</v>
       </c>
       <c r="L17" s="1" t="str">
@@ -2617,16 +2617,16 @@
         <v>402</v>
       </c>
       <c r="F18" s="7">
-        <f ca="1">VLOOKUP($E18, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E18, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000009</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="13" t="s">
         <v>318</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L18" s="1" t="str">
@@ -2646,16 +2646,16 @@
         <v>402</v>
       </c>
       <c r="F19" s="7">
-        <f ca="1">VLOOKUP($E19, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E19, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000009</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="13" t="s">
         <v>324</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L19" s="1" t="str">
@@ -2675,16 +2675,16 @@
         <v>402</v>
       </c>
       <c r="F20" s="7">
-        <f ca="1">VLOOKUP($E20, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E20, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000009</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="13" t="s">
         <v>339</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L20" s="1" t="str">
@@ -2704,16 +2704,16 @@
         <v>237</v>
       </c>
       <c r="F21" s="7">
-        <f ca="1">VLOOKUP($E21, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E21, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000001</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>348</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L21" s="1" t="str">
@@ -2733,16 +2733,16 @@
         <v>237</v>
       </c>
       <c r="F22" s="7">
-        <f ca="1">VLOOKUP($E22, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E22, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000001</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>380</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L22" s="1" t="str">
@@ -2762,16 +2762,16 @@
         <v>403</v>
       </c>
       <c r="F23" s="7">
-        <f ca="1">VLOOKUP($E23, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E23, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000003</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="13" t="s">
         <v>330</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L23" s="1" t="str">
@@ -2791,16 +2791,16 @@
         <v>403</v>
       </c>
       <c r="F24" s="7">
-        <f ca="1">VLOOKUP($E24, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E24, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000003</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>333</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L24" s="1" t="str">
@@ -2820,16 +2820,16 @@
         <v>403</v>
       </c>
       <c r="F25" s="7">
-        <f ca="1">VLOOKUP($E25, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E25, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000003</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="13" t="s">
         <v>336</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L25" s="1" t="str">
@@ -2849,16 +2849,16 @@
         <v>403</v>
       </c>
       <c r="F26" s="7">
-        <f ca="1">VLOOKUP($E26, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E26, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000003</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="13" t="s">
         <v>351</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L26" s="1" t="str">
@@ -2878,16 +2878,16 @@
         <v>405</v>
       </c>
       <c r="F27" s="7">
-        <f ca="1">VLOOKUP($E27, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E27, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000011</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="13" t="s">
         <v>376</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L27" s="1" t="str">
@@ -2907,16 +2907,16 @@
         <v>401</v>
       </c>
       <c r="F28" s="7">
-        <f ca="1">VLOOKUP($E28, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E28, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000019</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="13" t="s">
         <v>315</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L28" s="1" t="str">
@@ -2936,16 +2936,16 @@
         <v>410</v>
       </c>
       <c r="F29" s="7">
-        <f ca="1">VLOOKUP($E29, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E29, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000020</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="13" t="s">
         <v>362</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L29" s="1" t="str">
@@ -2965,16 +2965,16 @@
         <v>400</v>
       </c>
       <c r="F30" s="7">
-        <f ca="1">VLOOKUP($E30, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E30, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000021</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="13" t="s">
         <v>327</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L30" s="1" t="str">
@@ -2994,16 +2994,16 @@
         <v>400</v>
       </c>
       <c r="F31" s="7">
-        <f ca="1">VLOOKUP($E31, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E31, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000021</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="13" t="s">
         <v>342</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L31" s="1" t="str">
@@ -3023,16 +3023,16 @@
         <v>400</v>
       </c>
       <c r="F32" s="7">
-        <f ca="1">VLOOKUP($E32, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E32, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000021</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="13" t="s">
         <v>388</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L32" s="1" t="str">
@@ -3052,16 +3052,16 @@
         <v>406</v>
       </c>
       <c r="F33" s="7">
-        <f ca="1">VLOOKUP($E33, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E33, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000022</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="13" t="s">
         <v>305</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L33" s="1" t="str">
@@ -3081,16 +3081,16 @@
         <v>202</v>
       </c>
       <c r="F34" s="7">
-        <f ca="1">VLOOKUP($E34, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E34, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000007</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="13" t="s">
         <v>272</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L34" s="1" t="str">
@@ -3110,16 +3110,16 @@
         <v>202</v>
       </c>
       <c r="F35" s="7">
-        <f ca="1">VLOOKUP($E35, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E35, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000007</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="13" t="s">
         <v>279</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="14" t="s">
         <v>416</v>
       </c>
       <c r="L35" s="1" t="str">
@@ -3139,16 +3139,16 @@
         <v>202</v>
       </c>
       <c r="F36" s="7">
-        <f ca="1">VLOOKUP($E36, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E36, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000007</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="13" t="s">
         <v>282</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="14" t="s">
         <v>416</v>
       </c>
       <c r="L36" s="1" t="str">
@@ -3168,16 +3168,16 @@
         <v>202</v>
       </c>
       <c r="F37" s="7">
-        <f ca="1">VLOOKUP($E37, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E37, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000007</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="13" t="s">
         <v>283</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="I37" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L37" s="1" t="str">
@@ -3197,16 +3197,16 @@
         <v>238</v>
       </c>
       <c r="F38" s="7">
-        <f ca="1">VLOOKUP($E38, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E38, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="13" t="s">
         <v>289</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="I38" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L38" s="1" t="str">
@@ -3226,16 +3226,16 @@
         <v>238</v>
       </c>
       <c r="F39" s="7">
-        <f ca="1">VLOOKUP($E39, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E39, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="13" t="s">
         <v>293</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L39" s="1" t="str">
@@ -3255,16 +3255,16 @@
         <v>238</v>
       </c>
       <c r="F40" s="7">
-        <f ca="1">VLOOKUP($E40, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E40, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="13" t="s">
         <v>320</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L40" s="1" t="str">
@@ -3284,16 +3284,16 @@
         <v>238</v>
       </c>
       <c r="F41" s="7">
-        <f ca="1">VLOOKUP($E41, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E41, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="13" t="s">
         <v>321</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L41" s="1" t="str">
@@ -3313,16 +3313,16 @@
         <v>238</v>
       </c>
       <c r="F42" s="7">
-        <f ca="1">VLOOKUP($E42, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E42, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="13" t="s">
         <v>357</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="I42" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L42" s="1" t="str">
@@ -3342,16 +3342,16 @@
         <v>238</v>
       </c>
       <c r="F43" s="7">
-        <f ca="1">VLOOKUP($E43, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E43, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="13" t="s">
         <v>360</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L43" s="1" t="str">
@@ -3371,16 +3371,16 @@
         <v>238</v>
       </c>
       <c r="F44" s="7">
-        <f ca="1">VLOOKUP($E44, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E44, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="13" t="s">
         <v>365</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L44" s="1" t="str">
@@ -3400,16 +3400,16 @@
         <v>238</v>
       </c>
       <c r="F45" s="7">
-        <f ca="1">VLOOKUP($E45, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E45, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="13" t="s">
         <v>366</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L45" s="1" t="str">
@@ -3429,16 +3429,16 @@
         <v>238</v>
       </c>
       <c r="F46" s="7">
-        <f ca="1">VLOOKUP($E46, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E46, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="13" t="s">
         <v>367</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L46" s="1" t="str">
@@ -3458,16 +3458,16 @@
         <v>238</v>
       </c>
       <c r="F47" s="7">
-        <f ca="1">VLOOKUP($E47, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E47, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="13" t="s">
         <v>368</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I47" s="16" t="s">
+      <c r="I47" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L47" s="1" t="str">
@@ -3487,16 +3487,16 @@
         <v>238</v>
       </c>
       <c r="F48" s="7">
-        <f ca="1">VLOOKUP($E48, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E48, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="13" t="s">
         <v>370</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="I48" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L48" s="1" t="str">
@@ -3516,16 +3516,16 @@
         <v>238</v>
       </c>
       <c r="F49" s="7">
-        <f ca="1">VLOOKUP($E49, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E49, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="13" t="s">
         <v>378</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I49" s="16" t="s">
+      <c r="I49" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L49" s="1" t="str">
@@ -3545,16 +3545,16 @@
         <v>238</v>
       </c>
       <c r="F50" s="7">
-        <f ca="1">VLOOKUP($E50, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E50, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="13" t="s">
         <v>391</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I50" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L50" s="1" t="str">
@@ -3574,16 +3574,16 @@
         <v>238</v>
       </c>
       <c r="F51" s="7">
-        <f ca="1">VLOOKUP($E51, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E51, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="13" t="s">
         <v>394</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L51" s="1" t="str">
@@ -3603,16 +3603,16 @@
         <v>409</v>
       </c>
       <c r="F52" s="7">
-        <f ca="1">VLOOKUP($E52, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E52, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000018</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="13" t="s">
         <v>301</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I52" s="16" t="s">
+      <c r="I52" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L52" s="1" t="str">
@@ -3632,16 +3632,16 @@
         <v>399</v>
       </c>
       <c r="F53" s="7">
-        <f ca="1">VLOOKUP($E53, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E53, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000016</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="13" t="s">
         <v>276</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I53" s="16" t="s">
+      <c r="I53" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L53" s="1" t="str">
@@ -3661,16 +3661,16 @@
         <v>399</v>
       </c>
       <c r="F54" s="7">
-        <f ca="1">VLOOKUP($E54, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E54, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000016</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="13" t="s">
         <v>284</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="I54" s="14" t="s">
         <v>416</v>
       </c>
       <c r="L54" s="1" t="str">
@@ -3690,16 +3690,16 @@
         <v>399</v>
       </c>
       <c r="F55" s="7">
-        <f ca="1">VLOOKUP($E55, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E55, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000016</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="13" t="s">
         <v>285</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I55" s="16" t="s">
+      <c r="I55" s="14" t="s">
         <v>416</v>
       </c>
       <c r="L55" s="1" t="str">
@@ -3719,16 +3719,16 @@
         <v>399</v>
       </c>
       <c r="F56" s="7">
-        <f ca="1">VLOOKUP($E56, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E56, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000016</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="G56" s="13" t="s">
         <v>286</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I56" s="16" t="s">
+      <c r="I56" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L56" s="1" t="str">
@@ -3748,16 +3748,16 @@
         <v>398</v>
       </c>
       <c r="F57" s="7">
-        <f ca="1">VLOOKUP($E57, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E57, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000010</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="13" t="s">
         <v>383</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I57" s="16" t="s">
+      <c r="I57" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L57" s="1" t="str">
@@ -3777,16 +3777,16 @@
         <v>398</v>
       </c>
       <c r="F58" s="7">
-        <f ca="1">VLOOKUP($E58, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E58, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000010</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="13" t="s">
         <v>395</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I58" s="16" t="s">
+      <c r="I58" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L58" s="1" t="str">
@@ -3806,16 +3806,16 @@
         <v>407</v>
       </c>
       <c r="F59" s="7">
-        <f ca="1">VLOOKUP($E59, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E59, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000004</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="G59" s="13" t="s">
         <v>312</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I59" s="16" t="s">
+      <c r="I59" s="14" t="s">
         <v>417</v>
       </c>
       <c r="L59" s="1" t="str">
@@ -3829,13 +3829,13 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
-      <c r="C60" s="20"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="21"/>
+      <c r="G60" s="19"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="22"/>
+      <c r="I60" s="20"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -3843,22 +3843,22 @@
       <c r="N60" s="4"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B61" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C61, ""), "", VLOOKUP($C61, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000439</v>
-      </c>
-      <c r="C61" s="15" t="s">
+      <c r="B61" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C61, ""), "", VLOOKUP($C61, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C61, ""), "", VLOOKUP($C61, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Teguh Pratama Januzir Sukin</v>
+      <c r="D61" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C61, ""), "", VLOOKUP($C61, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F61" s="7">
-        <f ca="1">VLOOKUP($E61, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E61, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -3867,35 +3867,35 @@
       <c r="H61" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I61" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L61" s="1" t="str">
+      <c r="I61" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L61" s="1" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '6550289791', 'Teguh Pratama Januzir S', 62000000000001, 25000000000439);</v>
-      </c>
-      <c r="N61" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N61" s="21">
         <f>N59+IF(EXACT(I61, ""), 0, 1)</f>
         <v>167000000000057</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B62" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C62, ""), "", VLOOKUP($C62, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000439</v>
-      </c>
-      <c r="C62" s="15" t="s">
+      <c r="B62" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C62, ""), "", VLOOKUP($C62, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C62, ""), "", VLOOKUP($C62, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Teguh Pratama Januzir Sukin</v>
+      <c r="D62" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C62, ""), "", VLOOKUP($C62, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F62" s="7">
-        <f ca="1">VLOOKUP($E62, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E62, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000001</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -3904,35 +3904,35 @@
       <c r="H62" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I62" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L62" s="1" t="str">
+      <c r="I62" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L62" s="1" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000001, '121-00-0599441-7', 'Teguh Pratama Januzi', 62000000000001, 25000000000439);</v>
-      </c>
-      <c r="N62" s="11">
-        <f t="shared" ref="N62:N77" ca="1" si="3">N61+IF(EXACT(B62, ""), 0, 1)</f>
-        <v>167000000000058</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N62" s="11" t="e">
+        <f t="shared" ref="N62:N76" ca="1" si="3">N61+IF(EXACT(B62, ""), 0, 1)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C63, ""), "", VLOOKUP($C63, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000439</v>
-      </c>
-      <c r="C63" s="15" t="s">
+      <c r="B63" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C63, ""), "", VLOOKUP($C63, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C63, ""), "", VLOOKUP($C63, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Teguh Pratama Januzir Sukin</v>
+      <c r="D63" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C63, ""), "", VLOOKUP($C63, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>238</v>
       </c>
       <c r="F63" s="7">
-        <f ca="1">VLOOKUP($E63, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E63, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000002</v>
       </c>
       <c r="G63" s="3" t="s">
@@ -3941,35 +3941,35 @@
       <c r="H63" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I63" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L63" s="1" t="str">
+      <c r="I63" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L63" s="1" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000002, '0206-01-095647-50-4', 'Teguh Pratama Januzi', 62000000000001, 25000000000439);</v>
-      </c>
-      <c r="N63" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N63" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000059</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C64, ""), "", VLOOKUP($C64, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000382</v>
-      </c>
-      <c r="C64" s="15">
+      <c r="B64" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C64, ""), "", VLOOKUP($C64, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C64" s="13">
         <v>210904088</v>
       </c>
-      <c r="D64" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C64, ""), "", VLOOKUP($C64, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Abdul Samad</v>
+      <c r="D64" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C64, ""), "", VLOOKUP($C64, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F64" s="7">
-        <f ca="1">VLOOKUP($E64, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E64, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -3978,35 +3978,35 @@
       <c r="H64" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I64" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L64" s="1" t="str">
+      <c r="I64" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L64" s="1" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '0060262641', 'Abd Samad', 62000000000001, 25000000000382);</v>
-      </c>
-      <c r="N64" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N64" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000060</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B65" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C65, ""), "", VLOOKUP($C65, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000514</v>
-      </c>
-      <c r="C65" s="15" t="s">
+      <c r="B65" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C65, ""), "", VLOOKUP($C65, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C65, ""), "", VLOOKUP($C65, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Achmad Yunadi</v>
+      <c r="D65" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C65, ""), "", VLOOKUP($C65, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F65" s="7">
-        <f ca="1">VLOOKUP($E65, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E65, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G65" s="3">
@@ -4015,35 +4015,35 @@
       <c r="H65" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I65" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L65" s="1" t="str">
+      <c r="I65" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L65" s="1" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '2040089643', 'Achmad Yunadi', 62000000000001, 25000000000514);</v>
-      </c>
-      <c r="N65" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N65" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000061</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B66" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C66, ""), "", VLOOKUP($C66, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000012</v>
-      </c>
-      <c r="C66" s="15" t="s">
+      <c r="B66" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C66, ""), "", VLOOKUP($C66, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C66, ""), "", VLOOKUP($C66, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Agnes Sutedja</v>
+      <c r="D66" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C66, ""), "", VLOOKUP($C66, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F66" s="7">
-        <f ca="1">VLOOKUP($E66, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E66, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -4052,35 +4052,35 @@
       <c r="H66" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I66" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L66" s="1" t="str">
+      <c r="I66" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L66" s="1" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '0350780718', 'The Giok Ing Agnes Suted', 62000000000001, 25000000000012);</v>
-      </c>
-      <c r="N66" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N66" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000062</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B67" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C67, ""), "", VLOOKUP($C67, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000549</v>
-      </c>
-      <c r="C67" s="15">
+      <c r="B67" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C67, ""), "", VLOOKUP($C67, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C67" s="13">
         <v>311022972</v>
       </c>
-      <c r="D67" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C67, ""), "", VLOOKUP($C67, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Agus Nuryadi</v>
+      <c r="D67" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C67, ""), "", VLOOKUP($C67, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F67" s="7">
-        <f ca="1">VLOOKUP($E67, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E67, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G67" s="3">
@@ -4089,35 +4089,35 @@
       <c r="H67" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I67" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L67" s="1" t="str">
+      <c r="I67" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L67" s="1" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '6821221339', 'Agus Nuryadi', 62000000000001, 25000000000549);</v>
-      </c>
-      <c r="N67" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N67" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000063</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B68" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C68, ""), "", VLOOKUP($C68, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000015</v>
-      </c>
-      <c r="C68" s="17" t="s">
+      <c r="B68" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C68, ""), "", VLOOKUP($C68, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D68" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C68, ""), "", VLOOKUP($C68, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Agus Salim</v>
+      <c r="D68" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C68, ""), "", VLOOKUP($C68, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F68" s="7">
-        <f ca="1">VLOOKUP($E68, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E68, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G68" s="3">
@@ -4126,35 +4126,35 @@
       <c r="H68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I68" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L68" s="1" t="str">
+      <c r="I68" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L68" s="1" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5750423347', 'Agus Salim', 62000000000001, 25000000000015);</v>
-      </c>
-      <c r="N68" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N68" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000064</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B69" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C69, ""), "", VLOOKUP($C69, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000019</v>
-      </c>
-      <c r="C69" s="15">
+      <c r="B69" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C69, ""), "", VLOOKUP($C69, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C69" s="13">
         <v>150506222</v>
       </c>
-      <c r="D69" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C69, ""), "", VLOOKUP($C69, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Ahmad Syaifulloh</v>
+      <c r="D69" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C69, ""), "", VLOOKUP($C69, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F69" s="7">
-        <f ca="1">VLOOKUP($E69, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E69, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G69" s="3">
@@ -4163,35 +4163,35 @@
       <c r="H69" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I69" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L69" s="1" t="str">
+      <c r="I69" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L69" s="1" t="e">
         <f t="shared" ref="L69:L132" ca="1" si="4">IF(EXACT(B69, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblBankAccount_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", F69, ", '", G69, "', '", H69, "', ", I69, ", ", B69, ");"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '7150306269', 'Ahmad Syaifulloh', 62000000000001, 25000000000019);</v>
-      </c>
-      <c r="N69" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N69" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000065</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B70" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C70, ""), "", VLOOKUP($C70, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000513</v>
-      </c>
-      <c r="C70" s="15">
+      <c r="B70" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C70, ""), "", VLOOKUP($C70, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C70" s="13">
         <v>191022969</v>
       </c>
-      <c r="D70" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C70, ""), "", VLOOKUP($C70, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Ahmad Choerul</v>
+      <c r="D70" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C70, ""), "", VLOOKUP($C70, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F70" s="7">
-        <f ca="1">VLOOKUP($E70, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E70, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G70" s="3">
@@ -4200,35 +4200,35 @@
       <c r="H70" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I70" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L70" s="1" t="str">
+      <c r="I70" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L70" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '2670159496', 'Ahmad Choerul', 62000000000001, 25000000000513);</v>
-      </c>
-      <c r="N70" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N70" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000066</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B71" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C71, ""), "", VLOOKUP($C71, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000023</v>
-      </c>
-      <c r="C71" s="15">
+      <c r="B71" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C71, ""), "", VLOOKUP($C71, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C71" s="13">
         <v>141020935</v>
       </c>
-      <c r="D71" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C71, ""), "", VLOOKUP($C71, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Aldi Mulyadi</v>
+      <c r="D71" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C71, ""), "", VLOOKUP($C71, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F71" s="7">
-        <f ca="1">VLOOKUP($E71, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E71, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G71" s="3">
@@ -4237,35 +4237,35 @@
       <c r="H71" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I71" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L71" s="1" t="str">
+      <c r="I71" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L71" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5520607058', 'Aldi Mulyadi', 62000000000001, 25000000000023);</v>
-      </c>
-      <c r="N71" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N71" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000067</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B72" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C72, ""), "", VLOOKUP($C72, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000039</v>
-      </c>
-      <c r="C72" s="15">
+      <c r="B72" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C72, ""), "", VLOOKUP($C72, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C72" s="13">
         <v>100419903</v>
       </c>
-      <c r="D72" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C72, ""), "", VLOOKUP($C72, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Annisa Dewi Arumsari</v>
+      <c r="D72" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C72, ""), "", VLOOKUP($C72, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F72" s="7">
-        <f ca="1">VLOOKUP($E72, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E72, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G72" s="3">
@@ -4274,35 +4274,35 @@
       <c r="H72" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I72" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L72" s="1" t="str">
+      <c r="I72" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L72" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5520537742', 'Annisa Dewi Arumsari', 62000000000001, 25000000000039);</v>
-      </c>
-      <c r="N72" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N72" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000068</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B73" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C73, ""), "", VLOOKUP($C73, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000044</v>
-      </c>
-      <c r="C73" s="15" t="s">
+      <c r="B73" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C73, ""), "", VLOOKUP($C73, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D73" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C73, ""), "", VLOOKUP($C73, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Anugerah Januariansyah</v>
+      <c r="D73" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C73, ""), "", VLOOKUP($C73, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F73" s="7">
-        <f ca="1">VLOOKUP($E73, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E73, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G73" s="3" t="s">
@@ -4311,35 +4311,35 @@
       <c r="H73" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I73" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L73" s="1" t="str">
+      <c r="I73" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L73" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '4565061969', 'Anugerah Januariansyah', 62000000000001, 25000000000044);</v>
-      </c>
-      <c r="N73" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N73" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000069</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B74" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C74, ""), "", VLOOKUP($C74, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000075</v>
-      </c>
-      <c r="C74" s="15" t="s">
+      <c r="B74" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C74, ""), "", VLOOKUP($C74, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C74, ""), "", VLOOKUP($C74, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Belina Lindarwani</v>
+      <c r="D74" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C74, ""), "", VLOOKUP($C74, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F74" s="7">
-        <f ca="1">VLOOKUP($E74, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E74, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G74" s="3">
@@ -4348,35 +4348,35 @@
       <c r="H74" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I74" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L74" s="1" t="str">
+      <c r="I74" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L74" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5520579321', 'Belina Lindarwani', 62000000000001, 25000000000075);</v>
-      </c>
-      <c r="N74" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N74" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000070</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B75" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C75, ""), "", VLOOKUP($C75, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000082</v>
-      </c>
-      <c r="C75" s="15" t="s">
+      <c r="B75" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C75, ""), "", VLOOKUP($C75, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C75, ""), "", VLOOKUP($C75, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Budianto</v>
+      <c r="D75" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C75, ""), "", VLOOKUP($C75, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F75" s="7">
-        <f ca="1">VLOOKUP($E75, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E75, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G75" s="3">
@@ -4385,35 +4385,35 @@
       <c r="H75" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I75" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L75" s="1" t="str">
+      <c r="I75" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L75" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '1280247568', 'Budianto', 62000000000001, 25000000000082);</v>
-      </c>
-      <c r="N75" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N75" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000071</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B76" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C76, ""), "", VLOOKUP($C76, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000092</v>
-      </c>
-      <c r="C76" s="15" t="s">
+      <c r="B76" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C76, ""), "", VLOOKUP($C76, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C76, ""), "", VLOOKUP($C76, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Darsito</v>
+      <c r="D76" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C76, ""), "", VLOOKUP($C76, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F76" s="7">
-        <f ca="1">VLOOKUP($E76, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E76, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G76" s="3">
@@ -4422,35 +4422,35 @@
       <c r="H76" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I76" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L76" s="1" t="str">
+      <c r="I76" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L76" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '2211206120', 'Darsito S Pd', 62000000000001, 25000000000092);</v>
-      </c>
-      <c r="N76" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N76" s="11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>167000000000072</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B77" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C77, ""), "", VLOOKUP($C77, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C77" s="15" t="s">
+      <c r="B77" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C77, ""), "", VLOOKUP($C77, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C77" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C77, ""), "", VLOOKUP($C77, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D77" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C77, ""), "", VLOOKUP($C77, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F77" s="7">
-        <f ca="1">VLOOKUP($E77, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E77, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G77" s="3">
@@ -4459,35 +4459,35 @@
       <c r="H77" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I77" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L77" s="1" t="str">
+      <c r="I77" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L77" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N77" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N77" s="11" t="e">
         <f ca="1">N76+IF(EXACT(B77, ""), 0, 1)</f>
-        <v>167000000000072</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B78" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C78, ""), "", VLOOKUP($C78, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000106</v>
-      </c>
-      <c r="C78" s="15" t="s">
+      <c r="B78" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C78, ""), "", VLOOKUP($C78, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D78" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C78, ""), "", VLOOKUP($C78, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Dionesius Sostenist Duka</v>
+      <c r="D78" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C78, ""), "", VLOOKUP($C78, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F78" s="7">
-        <f ca="1">VLOOKUP($E78, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E78, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G78" s="3">
@@ -4496,35 +4496,35 @@
       <c r="H78" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I78" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L78" s="1" t="str">
+      <c r="I78" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L78" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '2731371123', 'Dionesius Sostenist Duka', 62000000000001, 25000000000106);</v>
-      </c>
-      <c r="N78" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N78" s="11" t="e">
         <f t="shared" ref="N78:N132" ca="1" si="5">N77+IF(EXACT(B78, ""), 0, 1)</f>
-        <v>167000000000073</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B79" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C79, ""), "", VLOOKUP($C79, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000116</v>
-      </c>
-      <c r="C79" s="15" t="s">
+      <c r="B79" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C79, ""), "", VLOOKUP($C79, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C79, ""), "", VLOOKUP($C79, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Edi Waluyo</v>
+      <c r="D79" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C79, ""), "", VLOOKUP($C79, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F79" s="7">
-        <f ca="1">VLOOKUP($E79, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E79, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
       <c r="G79" s="3" t="s">
@@ -4533,1979 +4533,1979 @@
       <c r="H79" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I79" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L79" s="1" t="str">
+      <c r="I79" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L79" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '0060185646', 'Edi Waluyo', 62000000000001, 25000000000116);</v>
-      </c>
-      <c r="N79" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N79" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000074</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B80" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C80, ""), "", VLOOKUP($C80, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000123</v>
-      </c>
-      <c r="C80" s="15" t="s">
+      <c r="B80" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C80, ""), "", VLOOKUP($C80, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C80, ""), "", VLOOKUP($C80, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Eka Bagus Dwi Putra</v>
+      <c r="D80" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C80, ""), "", VLOOKUP($C80, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F80" s="7">
-        <f ca="1">VLOOKUP($E80, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E80, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="12">
         <v>5211078091</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I80" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L80" s="1" t="str">
+      <c r="I80" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L80" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5211078091', 'Eka Bagus Dwi Putra', 62000000000001, 25000000000123);</v>
-      </c>
-      <c r="N80" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N80" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000075</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C81, ""), "", VLOOKUP($C81, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000125</v>
-      </c>
-      <c r="C81" s="15" t="s">
+      <c r="B81" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C81, ""), "", VLOOKUP($C81, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D81" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C81, ""), "", VLOOKUP($C81, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Eka Purwanti</v>
+      <c r="D81" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C81, ""), "", VLOOKUP($C81, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F81" s="7">
-        <f ca="1">VLOOKUP($E81, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E81, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G81" s="12">
         <v>5855178874</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I81" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L81" s="1" t="str">
+      <c r="I81" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L81" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5855178874', 'Eka Purwanti', 62000000000001, 25000000000125);</v>
-      </c>
-      <c r="N81" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N81" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000076</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B82" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C82, ""), "", VLOOKUP($C82, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000138</v>
-      </c>
-      <c r="C82" s="15" t="s">
+      <c r="B82" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C82, ""), "", VLOOKUP($C82, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C82, ""), "", VLOOKUP($C82, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Endang Sutrisna</v>
+      <c r="D82" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C82, ""), "", VLOOKUP($C82, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F82" s="7">
-        <f ca="1">VLOOKUP($E82, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E82, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G82" s="12">
         <v>5750226541</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I82" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L82" s="1" t="str">
+      <c r="I82" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L82" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5750226541', 'Endang Sutrisno', 62000000000001, 25000000000138);</v>
-      </c>
-      <c r="N82" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N82" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000077</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C83, ""), "", VLOOKUP($C83, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000522</v>
-      </c>
-      <c r="C83" s="15">
+      <c r="B83" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C83, ""), "", VLOOKUP($C83, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C83" s="13">
         <v>191022968</v>
       </c>
-      <c r="D83" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C83, ""), "", VLOOKUP($C83, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Ferdian Kriswantoro</v>
+      <c r="D83" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C83, ""), "", VLOOKUP($C83, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F83" s="7">
-        <f ca="1">VLOOKUP($E83, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E83, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G83" s="12">
         <v>8760378217</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I83" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L83" s="1" t="str">
+      <c r="I83" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L83" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '8760378217', 'Ferdian Kriswantoro', 62000000000001, 25000000000522);</v>
-      </c>
-      <c r="N83" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N83" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000078</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C84, ""), "", VLOOKUP($C84, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000159</v>
-      </c>
-      <c r="C84" s="15">
+      <c r="B84" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C84, ""), "", VLOOKUP($C84, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C84" s="13">
         <v>181114748</v>
       </c>
-      <c r="D84" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C84, ""), "", VLOOKUP($C84, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Frando Judi Siahaan</v>
+      <c r="D84" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C84, ""), "", VLOOKUP($C84, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F84" s="7">
-        <f ca="1">VLOOKUP($E84, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E84, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G84" s="12">
         <v>8200472447</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I84" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L84" s="1" t="str">
+      <c r="I84" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L84" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '8200472447', 'Frando Judi Siahaan', 62000000000001, 25000000000159);</v>
-      </c>
-      <c r="N84" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N84" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000079</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B85" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C85, ""), "", VLOOKUP($C85, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000168</v>
-      </c>
-      <c r="C85" s="15" t="s">
+      <c r="B85" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C85, ""), "", VLOOKUP($C85, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C85, ""), "", VLOOKUP($C85, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Gunawan</v>
+      <c r="D85" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C85, ""), "", VLOOKUP($C85, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F85" s="7">
-        <f ca="1">VLOOKUP($E85, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E85, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G85" s="12">
         <v>1281467889</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I85" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L85" s="1" t="str">
+      <c r="I85" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L85" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '1281467889', 'Gunawan Ir', 62000000000001, 25000000000168);</v>
-      </c>
-      <c r="N85" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N85" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000080</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B86" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C86, ""), "", VLOOKUP($C86, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000434</v>
-      </c>
-      <c r="C86" s="15" t="s">
+      <c r="B86" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C86, ""), "", VLOOKUP($C86, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D86" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C86, ""), "", VLOOKUP($C86, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Tajuddin Assubki Ismail</v>
+      <c r="D86" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C86, ""), "", VLOOKUP($C86, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F86" s="7">
-        <f ca="1">VLOOKUP($E86, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E86, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G86" s="12">
         <v>3191643869</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I86" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L86" s="1" t="str">
+      <c r="I86" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L86" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '3191643869', 'H T Assubki Ismail Ir', 62000000000001, 25000000000434);</v>
-      </c>
-      <c r="N86" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N86" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000081</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B87" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C87, ""), "", VLOOKUP($C87, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000196</v>
-      </c>
-      <c r="C87" s="15">
+      <c r="B87" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C87, ""), "", VLOOKUP($C87, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C87" s="13">
         <v>191015786</v>
       </c>
-      <c r="D87" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C87, ""), "", VLOOKUP($C87, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Icha Mailinda Syamsoedin</v>
+      <c r="D87" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C87, ""), "", VLOOKUP($C87, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F87" s="7">
-        <f ca="1">VLOOKUP($E87, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E87, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G87" s="12">
         <v>5520226500</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I87" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L87" s="1" t="str">
+      <c r="I87" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L87" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5520226500', 'Icha Mailinda', 62000000000001, 25000000000196);</v>
-      </c>
-      <c r="N87" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N87" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000082</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B88" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C88, ""), "", VLOOKUP($C88, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000204</v>
-      </c>
-      <c r="C88" s="15">
+      <c r="B88" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C88, ""), "", VLOOKUP($C88, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C88" s="13">
         <v>170217825</v>
       </c>
-      <c r="D88" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C88, ""), "", VLOOKUP($C88, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Ilham Akbar</v>
+      <c r="D88" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C88, ""), "", VLOOKUP($C88, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F88" s="7">
-        <f ca="1">VLOOKUP($E88, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E88, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G88" s="12">
         <v>5520464753</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I88" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L88" s="1" t="str">
+      <c r="I88" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L88" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5520464753', 'Ilham', 62000000000001, 25000000000204);</v>
-      </c>
-      <c r="N88" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N88" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000083</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B89" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C89, ""), "", VLOOKUP($C89, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000527</v>
-      </c>
-      <c r="C89" s="15" t="s">
+      <c r="B89" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C89, ""), "", VLOOKUP($C89, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C89, ""), "", VLOOKUP($C89, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Irma Maulidawati</v>
+      <c r="D89" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C89, ""), "", VLOOKUP($C89, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F89" s="7">
-        <f ca="1">VLOOKUP($E89, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E89, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G89" s="12">
         <v>5520696425</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I89" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L89" s="1" t="str">
+      <c r="I89" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L89" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5520696425', 'Irma Maulidawati', 62000000000001, 25000000000527);</v>
-      </c>
-      <c r="N89" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N89" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000084</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B90" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C90, ""), "", VLOOKUP($C90, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000217</v>
-      </c>
-      <c r="C90" s="15">
+      <c r="B90" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C90, ""), "", VLOOKUP($C90, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C90" s="13">
         <v>150805153</v>
       </c>
-      <c r="D90" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C90, ""), "", VLOOKUP($C90, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Isa Taufiq</v>
+      <c r="D90" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C90, ""), "", VLOOKUP($C90, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F90" s="7">
-        <f ca="1">VLOOKUP($E90, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E90, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="12">
         <v>7660328771</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I90" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L90" s="1" t="str">
+      <c r="I90" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L90" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '7660328771', 'Isa Taufiq', 62000000000001, 25000000000217);</v>
-      </c>
-      <c r="N90" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N90" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000085</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B91" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C91, ""), "", VLOOKUP($C91, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000528</v>
-      </c>
-      <c r="C91" s="15">
+      <c r="B91" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C91, ""), "", VLOOKUP($C91, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C91" s="13">
         <v>170322960</v>
       </c>
-      <c r="D91" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C91, ""), "", VLOOKUP($C91, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Istikaro Fauziah</v>
+      <c r="D91" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C91, ""), "", VLOOKUP($C91, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F91" s="7">
-        <f ca="1">VLOOKUP($E91, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E91, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G91" s="12">
         <v>4980153300</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I91" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L91" s="1" t="str">
+      <c r="I91" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L91" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '4980153300', 'Istikaro Fauziah', 62000000000001, 25000000000528);</v>
-      </c>
-      <c r="N91" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N91" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000086</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B92" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C92, ""), "", VLOOKUP($C92, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000232</v>
-      </c>
-      <c r="C92" s="15" t="s">
+      <c r="B92" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C92, ""), "", VLOOKUP($C92, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C92" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C92, ""), "", VLOOKUP($C92, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Jimmywal</v>
+      <c r="D92" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C92, ""), "", VLOOKUP($C92, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F92" s="7">
-        <f ca="1">VLOOKUP($E92, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E92, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G92" s="12">
         <v>5520190068</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L92" s="1" t="str">
+      <c r="I92" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L92" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5520190068', 'Jimmywal Amd', 62000000000001, 25000000000232);</v>
-      </c>
-      <c r="N92" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N92" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000087</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C93, ""), "", VLOOKUP($C93, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000253</v>
-      </c>
-      <c r="C93" s="15">
+      <c r="B93" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C93, ""), "", VLOOKUP($C93, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C93" s="13">
         <v>190803044</v>
       </c>
-      <c r="D93" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C93, ""), "", VLOOKUP($C93, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Kornelius Sakan</v>
+      <c r="D93" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C93, ""), "", VLOOKUP($C93, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F93" s="7">
-        <f ca="1">VLOOKUP($E93, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E93, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="12" t="s">
         <v>171</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I93" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L93" s="1" t="str">
+      <c r="I93" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L93" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '0060238634', 'Kornelius Sakan', 62000000000001, 25000000000253);</v>
-      </c>
-      <c r="N93" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N93" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000088</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B94" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C94, ""), "", VLOOKUP($C94, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000157</v>
-      </c>
-      <c r="C94" s="15" t="s">
+      <c r="B94" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C94, ""), "", VLOOKUP($C94, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C94, ""), "", VLOOKUP($C94, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Fitriastuti Kurnia</v>
+      <c r="D94" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C94, ""), "", VLOOKUP($C94, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F94" s="7">
-        <f ca="1">VLOOKUP($E94, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E94, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="12" t="s">
         <v>172</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I94" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L94" s="1" t="str">
+      <c r="I94" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L94" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '0060202915', 'Kurnia Fitriastuti', 62000000000001, 25000000000157);</v>
-      </c>
-      <c r="N94" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N94" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000089</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C95, ""), "", VLOOKUP($C95, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000262</v>
-      </c>
-      <c r="C95" s="15">
+      <c r="B95" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C95, ""), "", VLOOKUP($C95, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C95" s="13">
         <v>170918883</v>
       </c>
-      <c r="D95" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C95, ""), "", VLOOKUP($C95, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Lisma Natalia</v>
+      <c r="D95" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C95, ""), "", VLOOKUP($C95, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F95" s="7">
-        <f ca="1">VLOOKUP($E95, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E95, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="12" t="s">
         <v>173</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I95" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L95" s="1" t="str">
+      <c r="I95" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L95" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5520514947', 'Lisma Natalia', 62000000000001, 25000000000262);</v>
-      </c>
-      <c r="N95" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N95" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000090</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B96" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C96, ""), "", VLOOKUP($C96, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000155</v>
-      </c>
-      <c r="C96" s="15">
+      <c r="B96" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C96, ""), "", VLOOKUP($C96, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C96" s="13">
         <v>160916799</v>
       </c>
-      <c r="D96" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C96, ""), "", VLOOKUP($C96, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>M. Fikri Caesarandi Hasibuan</v>
+      <c r="D96" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C96, ""), "", VLOOKUP($C96, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F96" s="7">
-        <f ca="1">VLOOKUP($E96, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E96, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G96" s="14">
+      <c r="G96" s="12">
         <v>7865198493</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I96" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L96" s="1" t="str">
+      <c r="I96" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L96" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '7865198493', 'M Fikri Caesarandi Hasib', 62000000000001, 25000000000155);</v>
-      </c>
-      <c r="N96" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N96" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000091</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B97" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C97, ""), "", VLOOKUP($C97, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000276</v>
-      </c>
-      <c r="C97" s="15" t="s">
+      <c r="B97" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C97, ""), "", VLOOKUP($C97, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C97" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C97, ""), "", VLOOKUP($C97, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Marten Tabun</v>
+      <c r="D97" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C97, ""), "", VLOOKUP($C97, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F97" s="7">
-        <f ca="1">VLOOKUP($E97, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E97, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G97" s="14">
+      <c r="G97" s="12">
         <v>5750336223</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I97" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L97" s="1" t="str">
+      <c r="I97" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L97" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5750336223', 'Marthen Tabun', 62000000000001, 25000000000276);</v>
-      </c>
-      <c r="N97" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N97" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000092</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
-      <c r="B98" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C98, ""), "", VLOOKUP($C98, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C98" s="15" t="s">
+      <c r="A98" s="13"/>
+      <c r="B98" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C98, ""), "", VLOOKUP($C98, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D98" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C98, ""), "", VLOOKUP($C98, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D98" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C98, ""), "", VLOOKUP($C98, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F98" s="7">
-        <f ca="1">VLOOKUP($E98, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E98, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G98" s="14" t="s">
+      <c r="G98" s="12" t="s">
         <v>174</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I98" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L98" s="1" t="str">
+      <c r="I98" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L98" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N98" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N98" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000092</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B99" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C99, ""), "", VLOOKUP($C99, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000301</v>
-      </c>
-      <c r="C99" s="15" t="s">
+      <c r="B99" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C99, ""), "", VLOOKUP($C99, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C99, ""), "", VLOOKUP($C99, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Mullan Tresna</v>
+      <c r="D99" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C99, ""), "", VLOOKUP($C99, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F99" s="7">
-        <f ca="1">VLOOKUP($E99, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E99, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G99" s="14">
+      <c r="G99" s="12">
         <v>7660282321</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I99" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L99" s="1" t="str">
+      <c r="I99" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L99" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '7660282321', 'Mullan Tresna', 62000000000001, 25000000000301);</v>
-      </c>
-      <c r="N99" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N99" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000093</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B100" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C100, ""), "", VLOOKUP($C100, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000307</v>
-      </c>
-      <c r="C100" s="15" t="s">
+      <c r="B100" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C100, ""), "", VLOOKUP($C100, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C100, ""), "", VLOOKUP($C100, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Nandang Effendi</v>
+      <c r="D100" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C100, ""), "", VLOOKUP($C100, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F100" s="7">
-        <f ca="1">VLOOKUP($E100, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E100, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="12">
         <v>7000245156</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I100" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L100" s="1" t="str">
+      <c r="I100" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L100" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '7000245156', 'H Nandang Effendi', 62000000000001, 25000000000307);</v>
-      </c>
-      <c r="N100" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N100" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000094</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B101" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C101, ""), "", VLOOKUP($C101, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000325</v>
-      </c>
-      <c r="C101" s="15" t="s">
+      <c r="B101" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C101, ""), "", VLOOKUP($C101, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C101" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D101" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C101, ""), "", VLOOKUP($C101, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Panca Yudi Baskoro</v>
+      <c r="D101" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C101, ""), "", VLOOKUP($C101, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F101" s="7">
-        <f ca="1">VLOOKUP($E101, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E101, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G101" s="14">
+      <c r="G101" s="12">
         <v>8760571998</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I101" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L101" s="1" t="str">
+      <c r="I101" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L101" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '8760571998', 'Panca Yudi Baskoro', 62000000000001, 25000000000325);</v>
-      </c>
-      <c r="N101" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N101" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000095</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B102" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C102, ""), "", VLOOKUP($C102, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000273</v>
-      </c>
-      <c r="C102" s="15">
+      <c r="B102" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C102, ""), "", VLOOKUP($C102, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C102" s="13">
         <v>160603011</v>
       </c>
-      <c r="D102" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C102, ""), "", VLOOKUP($C102, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Pantas Banjarnahor Marbun</v>
+      <c r="D102" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C102, ""), "", VLOOKUP($C102, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F102" s="7">
-        <f ca="1">VLOOKUP($E102, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E102, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G102" s="14" t="s">
+      <c r="G102" s="12" t="s">
         <v>175</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I102" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L102" s="1" t="str">
+      <c r="I102" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L102" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '0060098298', 'Pantas Banjar Nahor', 62000000000001, 25000000000273);</v>
-      </c>
-      <c r="N102" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N102" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000096</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B103" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C103, ""), "", VLOOKUP($C103, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000330</v>
-      </c>
-      <c r="C103" s="15">
+      <c r="B103" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C103, ""), "", VLOOKUP($C103, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C103" s="13">
         <v>260115754</v>
       </c>
-      <c r="D103" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C103, ""), "", VLOOKUP($C103, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Prayanti Dewi Anggraini</v>
+      <c r="D103" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C103, ""), "", VLOOKUP($C103, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F103" s="7">
-        <f ca="1">VLOOKUP($E103, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E103, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G103" s="14">
+      <c r="G103" s="12">
         <v>3831252381</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I103" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L103" s="1" t="str">
+      <c r="I103" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L103" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '3831252381', 'Prayanti Dewi Anggraini', 62000000000001, 25000000000330);</v>
-      </c>
-      <c r="N103" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N103" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000097</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B104" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C104, ""), "", VLOOKUP($C104, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000352</v>
-      </c>
-      <c r="C104" s="15">
+      <c r="B104" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C104, ""), "", VLOOKUP($C104, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C104" s="13">
         <v>221110557</v>
       </c>
-      <c r="D104" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C104, ""), "", VLOOKUP($C104, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Rhino Priawan</v>
+      <c r="D104" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C104, ""), "", VLOOKUP($C104, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F104" s="7">
-        <f ca="1">VLOOKUP($E104, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E104, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G104" s="14">
+      <c r="G104" s="12">
         <v>7660268949</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I104" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L104" s="1" t="str">
+      <c r="I104" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L104" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '7660268949', 'Rhino Priawan', 62000000000001, 25000000000352);</v>
-      </c>
-      <c r="N104" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N104" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000098</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B105" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C105, ""), "", VLOOKUP($C105, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000509</v>
-      </c>
-      <c r="C105" s="15">
+      <c r="B105" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C105, ""), "", VLOOKUP($C105, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="13">
         <v>260716795</v>
       </c>
-      <c r="D105" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C105, ""), "", VLOOKUP($C105, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Riza Emir Subekti</v>
+      <c r="D105" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C105, ""), "", VLOOKUP($C105, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F105" s="7">
-        <f ca="1">VLOOKUP($E105, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E105, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G105" s="14">
+      <c r="G105" s="12">
         <v>2170088924</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I105" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L105" s="1" t="str">
+      <c r="I105" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L105" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '2170088924', 'Riza Emir Subekti', 62000000000001, 25000000000509);</v>
-      </c>
-      <c r="N105" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N105" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000099</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B106" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C106, ""), "", VLOOKUP($C106, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000381</v>
-      </c>
-      <c r="C106" s="15">
+      <c r="B106" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C106, ""), "", VLOOKUP($C106, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C106" s="13">
         <v>161220941</v>
       </c>
-      <c r="D106" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C106, ""), "", VLOOKUP($C106, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Sakinah Tantriani Lubis</v>
+      <c r="D106" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C106, ""), "", VLOOKUP($C106, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F106" s="7">
-        <f ca="1">VLOOKUP($E106, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E106, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G106" s="14">
+      <c r="G106" s="12">
         <v>5025005331</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I106" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L106" s="1" t="str">
+      <c r="I106" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L106" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5025005331', 'Sakinah Tantriani', 62000000000001, 25000000000381);</v>
-      </c>
-      <c r="N106" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N106" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B107" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C107, ""), "", VLOOKUP($C107, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000391</v>
-      </c>
-      <c r="C107" s="15" t="s">
+      <c r="B107" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C107, ""), "", VLOOKUP($C107, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C107" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D107" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C107, ""), "", VLOOKUP($C107, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Seftiyan Hadi Maulana</v>
+      <c r="D107" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C107, ""), "", VLOOKUP($C107, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F107" s="7">
-        <f ca="1">VLOOKUP($E107, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E107, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G107" s="14" t="s">
+      <c r="G107" s="12" t="s">
         <v>176</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I107" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L107" s="1" t="str">
+      <c r="I107" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L107" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5325315714', 'Seftiyan Hadi Maulana', 62000000000001, 25000000000391);</v>
-      </c>
-      <c r="N107" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N107" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000101</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B108" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C108, ""), "", VLOOKUP($C108, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000393</v>
-      </c>
-      <c r="C108" s="15">
+      <c r="B108" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C108, ""), "", VLOOKUP($C108, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C108" s="13">
         <v>130906272</v>
       </c>
-      <c r="D108" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C108, ""), "", VLOOKUP($C108, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Setiadi</v>
+      <c r="D108" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C108, ""), "", VLOOKUP($C108, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F108" s="7">
-        <f ca="1">VLOOKUP($E108, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E108, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G108" s="14">
+      <c r="G108" s="12">
         <v>2101238654</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I108" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L108" s="1" t="str">
+      <c r="I108" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L108" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '2101238654', 'Setiadi', 62000000000001, 25000000000393);</v>
-      </c>
-      <c r="N108" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N108" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000102</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B109" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C109, ""), "", VLOOKUP($C109, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000397</v>
-      </c>
-      <c r="C109" s="15" t="s">
+      <c r="B109" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C109, ""), "", VLOOKUP($C109, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D109" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C109, ""), "", VLOOKUP($C109, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Sholehah</v>
+      <c r="D109" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C109, ""), "", VLOOKUP($C109, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F109" s="7">
-        <f ca="1">VLOOKUP($E109, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E109, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G109" s="14" t="s">
+      <c r="G109" s="12" t="s">
         <v>93</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I109" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L109" s="1" t="str">
+      <c r="I109" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L109" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '0670059618', 'Sholehah', 62000000000001, 25000000000397);</v>
-      </c>
-      <c r="N109" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N109" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000103</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B110" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C110, ""), "", VLOOKUP($C110, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000412</v>
-      </c>
-      <c r="C110" s="15" t="s">
+      <c r="B110" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C110, ""), "", VLOOKUP($C110, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C110" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C110, ""), "", VLOOKUP($C110, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Sudarlan</v>
+      <c r="D110" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C110, ""), "", VLOOKUP($C110, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F110" s="7">
-        <f ca="1">VLOOKUP($E110, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E110, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G110" s="14">
+      <c r="G110" s="12">
         <v>5750223151</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I110" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L110" s="1" t="str">
+      <c r="I110" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L110" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5750223151', 'Sudarlan', 62000000000001, 25000000000412);</v>
-      </c>
-      <c r="N110" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N110" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000104</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B111" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C111, ""), "", VLOOKUP($C111, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000413</v>
-      </c>
-      <c r="C111" s="15" t="s">
+      <c r="B111" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C111, ""), "", VLOOKUP($C111, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C111" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C111, ""), "", VLOOKUP($C111, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Sufie Amalia</v>
+      <c r="D111" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C111, ""), "", VLOOKUP($C111, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F111" s="7">
-        <f ca="1">VLOOKUP($E111, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E111, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G111" s="14">
+      <c r="G111" s="12">
         <v>5490332288</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I111" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L111" s="1" t="str">
+      <c r="I111" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L111" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5490332288', 'Sufie Amalia', 62000000000001, 25000000000413);</v>
-      </c>
-      <c r="N111" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N111" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000105</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B112" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C112, ""), "", VLOOKUP($C112, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000428</v>
-      </c>
-      <c r="C112" s="15" t="s">
+      <c r="B112" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C112, ""), "", VLOOKUP($C112, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C112" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D112" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C112, ""), "", VLOOKUP($C112, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Suyanto</v>
+      <c r="D112" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C112, ""), "", VLOOKUP($C112, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F112" s="7">
-        <f ca="1">VLOOKUP($E112, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E112, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G112" s="14">
+      <c r="G112" s="12">
         <v>1280421665</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I112" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L112" s="1" t="str">
+      <c r="I112" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L112" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '1280421665', 'Suyanto', 62000000000001, 25000000000428);</v>
-      </c>
-      <c r="N112" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N112" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000106</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B113" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C113, ""), "", VLOOKUP($C113, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000278</v>
-      </c>
-      <c r="C113" s="15" t="s">
+      <c r="B113" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C113, ""), "", VLOOKUP($C113, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C113" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C113, ""), "", VLOOKUP($C113, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>T. Marungkil U. S. Sagala</v>
+      <c r="D113" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C113, ""), "", VLOOKUP($C113, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F113" s="7">
-        <f ca="1">VLOOKUP($E113, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E113, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G113" s="14">
+      <c r="G113" s="12">
         <v>7660251671</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I113" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L113" s="1" t="str">
+      <c r="I113" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L113" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '7660251671', 'T Marungkil U S Sagala', 62000000000001, 25000000000278);</v>
-      </c>
-      <c r="N113" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N113" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000107</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B114" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C114, ""), "", VLOOKUP($C114, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000452</v>
-      </c>
-      <c r="C114" s="15" t="s">
+      <c r="B114" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C114, ""), "", VLOOKUP($C114, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C114" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D114" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C114, ""), "", VLOOKUP($C114, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Turita Pramuning Marantina</v>
+      <c r="D114" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C114, ""), "", VLOOKUP($C114, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F114" s="7">
-        <f ca="1">VLOOKUP($E114, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E114, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G114" s="14" t="s">
+      <c r="G114" s="12" t="s">
         <v>177</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I114" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L114" s="1" t="str">
+      <c r="I114" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L114" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '3751363751', 'Turita Pramuning M Ir', 62000000000001, 25000000000452);</v>
-      </c>
-      <c r="N114" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N114" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000108</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B115" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C115, ""), "", VLOOKUP($C115, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000467</v>
-      </c>
-      <c r="C115" s="15" t="s">
+      <c r="B115" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C115, ""), "", VLOOKUP($C115, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D115" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C115, ""), "", VLOOKUP($C115, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Wahyu Ramadhani</v>
+      <c r="D115" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C115, ""), "", VLOOKUP($C115, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F115" s="7">
-        <f ca="1">VLOOKUP($E115, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E115, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G115" s="14">
+      <c r="G115" s="12">
         <v>5520532155</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I115" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L115" s="1" t="str">
+      <c r="I115" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L115" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5520532155', 'Wahyu Ramadhani', 62000000000001, 25000000000467);</v>
-      </c>
-      <c r="N115" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N115" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000109</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B116" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C116, ""), "", VLOOKUP($C116, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000542</v>
-      </c>
-      <c r="C116" s="15">
+      <c r="B116" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C116, ""), "", VLOOKUP($C116, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C116" s="13">
         <v>240122958</v>
       </c>
-      <c r="D116" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C116, ""), "", VLOOKUP($C116, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Wardah Laily Khoiriyah</v>
+      <c r="D116" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C116, ""), "", VLOOKUP($C116, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F116" s="7">
-        <f ca="1">VLOOKUP($E116, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E116, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G116" s="14">
+      <c r="G116" s="12">
         <v>8670430678</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I116" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L116" s="1" t="str">
+      <c r="I116" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L116" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '8670430678', 'Wardah Laily Khoiriyah', 62000000000001, 25000000000542);</v>
-      </c>
-      <c r="N116" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N116" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000110</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B117" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C117, ""), "", VLOOKUP($C117, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000474</v>
-      </c>
-      <c r="C117" s="15" t="s">
+      <c r="B117" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C117, ""), "", VLOOKUP($C117, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C117, ""), "", VLOOKUP($C117, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Wisnu Ardian</v>
+      <c r="D117" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C117, ""), "", VLOOKUP($C117, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F117" s="7">
-        <f ca="1">VLOOKUP($E117, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E117, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G117" s="14">
+      <c r="G117" s="12">
         <v>2910590742</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I117" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L117" s="1" t="str">
+      <c r="I117" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L117" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '2910590742', 'Wisnu Ardian', 62000000000001, 25000000000474);</v>
-      </c>
-      <c r="N117" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N117" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000111</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B118" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C118, ""), "", VLOOKUP($C118, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000544</v>
-      </c>
-      <c r="C118" s="15">
+      <c r="B118" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C118, ""), "", VLOOKUP($C118, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C118" s="13">
         <v>180822966</v>
       </c>
-      <c r="D118" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C118, ""), "", VLOOKUP($C118, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Wulanraniasih</v>
+      <c r="D118" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C118, ""), "", VLOOKUP($C118, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F118" s="7">
-        <f ca="1">VLOOKUP($E118, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E118, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G118" s="14">
+      <c r="G118" s="12">
         <v>6860316941</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I118" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L118" s="1" t="str">
+      <c r="I118" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L118" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '6860316941', 'Wulanraniasih', 62000000000001, 25000000000544);</v>
-      </c>
-      <c r="N118" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N118" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000112</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B119" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C119, ""), "", VLOOKUP($C119, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000487</v>
-      </c>
-      <c r="C119" s="15">
+      <c r="B119" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C119, ""), "", VLOOKUP($C119, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C119" s="13">
         <v>160714734</v>
       </c>
-      <c r="D119" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C119, ""), "", VLOOKUP($C119, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Yuliandaru Suryoatmodjo</v>
+      <c r="D119" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C119, ""), "", VLOOKUP($C119, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F119" s="7">
-        <f ca="1">VLOOKUP($E119, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E119, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G119" s="14">
+      <c r="G119" s="12">
         <v>3721127379</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I119" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L119" s="1" t="str">
+      <c r="I119" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L119" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '3721127379', 'Yuliandaru Suryoatmodjo', 62000000000001, 25000000000487);</v>
-      </c>
-      <c r="N119" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N119" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000113</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B120" s="8">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C120, ""), "", VLOOKUP($C120, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v>25000000000497</v>
-      </c>
-      <c r="C120" s="15" t="s">
+      <c r="B120" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C120, ""), "", VLOOKUP($C120, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C120" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D120" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C120, ""), "", VLOOKUP($C120, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v>Zainudin Anwar</v>
+      <c r="D120" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C120, ""), "", VLOOKUP($C120, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F120" s="7">
-        <f ca="1">VLOOKUP($E120, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E120, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G120" s="14">
+      <c r="G120" s="12">
         <v>5520552261</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I120" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L120" s="1" t="str">
+      <c r="I120" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L120" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblBankAccount_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 166000000000005, '5520552261', 'Zainudin Anwar', 62000000000001, 25000000000497);</v>
-      </c>
-      <c r="N120" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N120" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B121" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C121, ""), "", VLOOKUP($C121, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C121" s="15" t="s">
+      <c r="B121" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C121, ""), "", VLOOKUP($C121, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C121" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="D121" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C121, ""), "", VLOOKUP($C121, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D121" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C121, ""), "", VLOOKUP($C121, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F121" s="7">
-        <f ca="1">VLOOKUP($E121, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E121, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="G121" s="12" t="s">
         <v>178</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I121" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L121" s="1" t="str">
+      <c r="I121" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L121" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N121" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N121" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B122" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C122, ""), "", VLOOKUP($C122, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C122" s="15" t="s">
+      <c r="B122" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C122, ""), "", VLOOKUP($C122, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C122" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D122" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C122, ""), "", VLOOKUP($C122, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D122" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C122, ""), "", VLOOKUP($C122, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F122" s="7">
-        <f ca="1">VLOOKUP($E122, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E122, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G122" s="14">
+      <c r="G122" s="12">
         <v>2821395781</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I122" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L122" s="1" t="str">
+      <c r="I122" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L122" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N122" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N122" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B123" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C123, ""), "", VLOOKUP($C123, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C123" s="15" t="s">
+      <c r="B123" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C123, ""), "", VLOOKUP($C123, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C123" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="D123" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C123, ""), "", VLOOKUP($C123, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D123" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C123, ""), "", VLOOKUP($C123, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F123" s="7">
-        <f ca="1">VLOOKUP($E123, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E123, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G123" s="14">
+      <c r="G123" s="12">
         <v>2281429789</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I123" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L123" s="1" t="str">
+      <c r="I123" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L123" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N123" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N123" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B124" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C124, ""), "", VLOOKUP($C124, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C124" s="15" t="s">
+      <c r="B124" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C124, ""), "", VLOOKUP($C124, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C124" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D124" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C124, ""), "", VLOOKUP($C124, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D124" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C124, ""), "", VLOOKUP($C124, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F124" s="7">
-        <f ca="1">VLOOKUP($E124, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E124, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G124" s="14">
+      <c r="G124" s="12">
         <v>5750622536</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I124" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L124" s="1" t="str">
+      <c r="I124" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L124" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N124" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N124" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B125" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C125, ""), "", VLOOKUP($C125, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C125" s="15" t="s">
+      <c r="B125" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C125, ""), "", VLOOKUP($C125, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C125" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D125" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C125, ""), "", VLOOKUP($C125, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D125" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C125, ""), "", VLOOKUP($C125, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F125" s="7">
-        <f ca="1">VLOOKUP($E125, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E125, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G125" s="14">
+      <c r="G125" s="12">
         <v>4860276548</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I125" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L125" s="1" t="str">
+      <c r="I125" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L125" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N125" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N125" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B126" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C126, ""), "", VLOOKUP($C126, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C126" s="15" t="s">
+      <c r="B126" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C126, ""), "", VLOOKUP($C126, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="D126" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C126, ""), "", VLOOKUP($C126, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D126" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C126, ""), "", VLOOKUP($C126, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F126" s="7">
-        <f ca="1">VLOOKUP($E126, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E126, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G126" s="14">
+      <c r="G126" s="12">
         <v>6540386232</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I126" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L126" s="1" t="str">
+      <c r="I126" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L126" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N126" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N126" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B127" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C127, ""), "", VLOOKUP($C127, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C127" s="15" t="s">
+      <c r="B127" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C127, ""), "", VLOOKUP($C127, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="D127" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C127, ""), "", VLOOKUP($C127, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D127" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C127, ""), "", VLOOKUP($C127, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F127" s="7">
-        <f ca="1">VLOOKUP($E127, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E127, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G127" s="18" t="s">
+      <c r="G127" s="16" t="s">
         <v>93</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I127" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L127" s="1" t="str">
+      <c r="I127" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L127" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N127" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N127" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B128" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C128, ""), "", VLOOKUP($C128, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C128" s="15" t="s">
+      <c r="B128" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C128, ""), "", VLOOKUP($C128, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C128" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D128" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C128, ""), "", VLOOKUP($C128, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D128" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C128, ""), "", VLOOKUP($C128, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F128" s="7">
-        <f ca="1">VLOOKUP($E128, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E128, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G128" s="18" t="s">
+      <c r="G128" s="16" t="s">
         <v>93</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I128" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L128" s="1" t="str">
+      <c r="I128" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L128" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N128" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N128" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B129" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C129, ""), "", VLOOKUP($C129, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C129" s="15" t="s">
+      <c r="B129" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C129, ""), "", VLOOKUP($C129, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D129" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C129, ""), "", VLOOKUP($C129, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D129" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C129, ""), "", VLOOKUP($C129, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F129" s="7">
-        <f ca="1">VLOOKUP($E129, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E129, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G129" s="18" t="s">
+      <c r="G129" s="16" t="s">
         <v>93</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I129" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L129" s="1" t="str">
+      <c r="I129" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L129" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N129" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N129" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B130" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C130, ""), "", VLOOKUP($C130, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C130" s="15" t="s">
+      <c r="B130" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C130, ""), "", VLOOKUP($C130, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C130" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="D130" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C130, ""), "", VLOOKUP($C130, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D130" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C130, ""), "", VLOOKUP($C130, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F130" s="7">
-        <f ca="1">VLOOKUP($E130, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E130, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G130" s="18" t="s">
+      <c r="G130" s="16" t="s">
         <v>93</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I130" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L130" s="1" t="str">
+      <c r="I130" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L130" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N130" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N130" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B131" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C131, ""), "", VLOOKUP($C131, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C131" s="15" t="s">
+      <c r="B131" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C131, ""), "", VLOOKUP($C131, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="D131" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C131, ""), "", VLOOKUP($C131, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D131" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C131, ""), "", VLOOKUP($C131, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F131" s="7">
-        <f ca="1">VLOOKUP($E131, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E131, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G131" s="14">
+      <c r="G131" s="12">
         <v>8681161864</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I131" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L131" s="1" t="str">
+      <c r="I131" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L131" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N131" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N131" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B132" s="8" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C132, ""), "", VLOOKUP($C132, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
-        <v/>
-      </c>
-      <c r="C132" s="15" t="s">
+      <c r="B132" s="8" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C132, ""), "", VLOOKUP($C132, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 3), 2, FALSE )), "")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D132" s="1" t="str">
-        <f ca="1">_xlfn.IFNA(IF(EXACT($C132, ""), "", VLOOKUP($C132, OFFSET([1]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
-        <v/>
+      <c r="D132" s="1" t="e">
+        <f ca="1">_xlfn.IFNA(IF(EXACT($C132, ""), "", VLOOKUP($C132, OFFSET([2]DataLookUp!$B$2, 0, 0, 1000, 4), 4, FALSE )), "")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F132" s="7">
-        <f ca="1">VLOOKUP($E132, OFFSET([2]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
+        <f ca="1">VLOOKUP($E132, OFFSET([1]DataLookUp!$B$2, 0, 0, 100, 6), 6, FALSE)</f>
         <v>166000000000005</v>
       </c>
-      <c r="G132" s="14">
+      <c r="G132" s="12">
         <v>7125461581</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I132" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L132" s="1" t="str">
+      <c r="I132" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L132" s="1" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N132" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N132" s="11" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>167000000000114</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -6531,13 +6531,13 @@
   <dimension ref="B1:J62"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I58"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
@@ -6555,7 +6555,7 @@
       <c r="B2" t="s">
         <v>412</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>254</v>
       </c>
       <c r="E2" t="s">
@@ -6581,7 +6581,7 @@
       <c r="B3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>183</v>
       </c>
       <c r="D3" s="1"/>
@@ -6608,7 +6608,7 @@
       <c r="B4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>263</v>
       </c>
       <c r="D4" s="1"/>
@@ -6635,7 +6635,7 @@
       <c r="B5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>265</v>
       </c>
       <c r="D5" s="1"/>
@@ -6662,7 +6662,7 @@
       <c r="B6" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>183</v>
       </c>
       <c r="D6" s="1"/>
@@ -6689,7 +6689,7 @@
       <c r="B7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>263</v>
       </c>
       <c r="D7" s="1"/>
@@ -6716,7 +6716,7 @@
       <c r="B8" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>265</v>
       </c>
       <c r="D8" s="1"/>
@@ -6743,7 +6743,7 @@
       <c r="B9" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>413</v>
       </c>
       <c r="D9" s="1"/>
@@ -6770,7 +6770,7 @@
       <c r="B10" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>386</v>
       </c>
       <c r="D10" s="1"/>
@@ -6797,7 +6797,7 @@
       <c r="B11" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D11" s="1"/>
@@ -6824,7 +6824,7 @@
       <c r="B12" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>317</v>
       </c>
       <c r="D12" s="1"/>
@@ -6851,7 +6851,7 @@
       <c r="B13" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>354</v>
       </c>
       <c r="D13" s="1"/>
@@ -6878,7 +6878,7 @@
       <c r="B14" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>374</v>
       </c>
       <c r="D14" s="1"/>
@@ -6905,7 +6905,7 @@
       <c r="B15" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>296</v>
       </c>
       <c r="D15" s="1"/>
@@ -6932,7 +6932,7 @@
       <c r="B16" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>345</v>
       </c>
       <c r="D16" s="1"/>
@@ -6959,7 +6959,7 @@
       <c r="B17" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D17" s="1"/>
@@ -6986,7 +6986,7 @@
       <c r="B18" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>324</v>
       </c>
       <c r="D18" s="1"/>
@@ -7013,7 +7013,7 @@
       <c r="B19" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>339</v>
       </c>
       <c r="D19" s="1"/>
@@ -7040,7 +7040,7 @@
       <c r="B20" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>348</v>
       </c>
       <c r="D20" s="1"/>
@@ -7067,7 +7067,7 @@
       <c r="B21" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>380</v>
       </c>
       <c r="D21" s="1"/>
@@ -7094,7 +7094,7 @@
       <c r="B22" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>330</v>
       </c>
       <c r="D22" s="1"/>
@@ -7121,7 +7121,7 @@
       <c r="B23" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>333</v>
       </c>
       <c r="D23" s="1"/>
@@ -7148,7 +7148,7 @@
       <c r="B24" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>336</v>
       </c>
       <c r="D24" s="1"/>
@@ -7175,7 +7175,7 @@
       <c r="B25" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>351</v>
       </c>
       <c r="D25" s="1"/>
@@ -7202,7 +7202,7 @@
       <c r="B26" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>376</v>
       </c>
       <c r="D26" s="1"/>
@@ -7229,7 +7229,7 @@
       <c r="B27" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>315</v>
       </c>
       <c r="D27" s="1"/>
@@ -7256,7 +7256,7 @@
       <c r="B28" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D28" s="1"/>
@@ -7283,7 +7283,7 @@
       <c r="B29" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>327</v>
       </c>
       <c r="D29" s="1"/>
@@ -7310,7 +7310,7 @@
       <c r="B30" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>342</v>
       </c>
       <c r="D30" s="1"/>
@@ -7337,7 +7337,7 @@
       <c r="B31" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D31" s="1"/>
@@ -7364,7 +7364,7 @@
       <c r="B32" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>305</v>
       </c>
       <c r="D32" s="1"/>
@@ -7391,7 +7391,7 @@
       <c r="B33" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>272</v>
       </c>
       <c r="D33" s="1"/>
@@ -7418,7 +7418,7 @@
       <c r="B34" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>279</v>
       </c>
       <c r="D34" s="1"/>
@@ -7445,7 +7445,7 @@
       <c r="B35" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>282</v>
       </c>
       <c r="D35" s="1"/>
@@ -7472,7 +7472,7 @@
       <c r="B36" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="17" t="s">
         <v>283</v>
       </c>
       <c r="D36" s="1"/>
@@ -7499,7 +7499,7 @@
       <c r="B37" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>289</v>
       </c>
       <c r="D37" s="1"/>
@@ -7526,7 +7526,7 @@
       <c r="B38" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D38" s="1"/>
@@ -7553,7 +7553,7 @@
       <c r="B39" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>320</v>
       </c>
       <c r="D39" s="1"/>
@@ -7580,7 +7580,7 @@
       <c r="B40" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="17" t="s">
         <v>321</v>
       </c>
       <c r="D40" s="1"/>
@@ -7607,7 +7607,7 @@
       <c r="B41" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>357</v>
       </c>
       <c r="D41" s="1"/>
@@ -7634,7 +7634,7 @@
       <c r="B42" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="17" t="s">
         <v>360</v>
       </c>
       <c r="D42" s="1"/>
@@ -7661,7 +7661,7 @@
       <c r="B43" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="17" t="s">
         <v>365</v>
       </c>
       <c r="D43" s="1"/>
@@ -7688,7 +7688,7 @@
       <c r="B44" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="17" t="s">
         <v>366</v>
       </c>
       <c r="D44" s="1"/>
@@ -7715,7 +7715,7 @@
       <c r="B45" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D45" s="1"/>
@@ -7742,7 +7742,7 @@
       <c r="B46" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="17" t="s">
         <v>368</v>
       </c>
       <c r="D46" s="1"/>
@@ -7769,7 +7769,7 @@
       <c r="B47" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="17" t="s">
         <v>370</v>
       </c>
       <c r="D47" s="1"/>
@@ -7796,7 +7796,7 @@
       <c r="B48" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="17" t="s">
         <v>378</v>
       </c>
       <c r="D48" s="1"/>
@@ -7823,7 +7823,7 @@
       <c r="B49" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="17" t="s">
         <v>391</v>
       </c>
       <c r="D49" s="1"/>
@@ -7850,7 +7850,7 @@
       <c r="B50" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D50" s="1"/>
@@ -7877,7 +7877,7 @@
       <c r="B51" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="17" t="s">
         <v>301</v>
       </c>
       <c r="D51" s="1"/>
@@ -7904,7 +7904,7 @@
       <c r="B52" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D52" s="1"/>
@@ -7931,7 +7931,7 @@
       <c r="B53" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="17" t="s">
         <v>284</v>
       </c>
       <c r="D53" s="1"/>
@@ -7958,7 +7958,7 @@
       <c r="B54" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="17" t="s">
         <v>285</v>
       </c>
       <c r="D54" s="1"/>
@@ -7985,7 +7985,7 @@
       <c r="B55" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="17" t="s">
         <v>286</v>
       </c>
       <c r="D55" s="1"/>
@@ -8012,7 +8012,7 @@
       <c r="B56" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="17" t="s">
         <v>383</v>
       </c>
       <c r="D56" s="1"/>
@@ -8039,7 +8039,7 @@
       <c r="B57" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="17" t="s">
         <v>395</v>
       </c>
       <c r="D57" s="1"/>
@@ -8066,7 +8066,7 @@
       <c r="B58" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D58" s="1"/>
@@ -8093,7 +8093,7 @@
       <c r="B59" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D59" s="1"/>
@@ -8120,7 +8120,7 @@
       <c r="B60" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="17" t="s">
         <v>356</v>
       </c>
       <c r="D60" s="1"/>
@@ -8147,7 +8147,7 @@
       <c r="B61" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="17" t="s">
         <v>356</v>
       </c>
       <c r="D61" s="1"/>
@@ -8174,7 +8174,7 @@
       <c r="B62" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="17" t="s">
         <v>356</v>
       </c>
       <c r="D62" s="1"/>
